--- a/Models' results.xlsx
+++ b/Models' results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Documents\R\GitHub_Projects\Predict_Attrition_on_IBM_HR_Analytics_Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64580BD-40DD-4DD7-9B0B-2DDCFBAE41D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAAD142-4594-4890-9D99-29B9AC113A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G10"/>
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,22 +501,22 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.71818181818181814</v>
+        <v>0.66363636363636369</v>
       </c>
       <c r="C2">
-        <v>0.26715916722632632</v>
+        <v>0.23009623797025389</v>
       </c>
       <c r="D2">
-        <v>0.647887323943662</v>
+        <v>0.71830985915492962</v>
       </c>
       <c r="E2">
-        <v>0.73170731707317072</v>
+        <v>0.65311653116531165</v>
       </c>
       <c r="F2">
-        <v>0.31724137931034491</v>
+        <v>0.28491620111731841</v>
       </c>
       <c r="G2">
-        <v>0.42592592592592599</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="H2">
         <v>0.78</v>
@@ -527,25 +527,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0.70227272727272727</v>
       </c>
       <c r="C3">
-        <v>0.2381751882263437</v>
+        <v>0.24689035225253461</v>
       </c>
       <c r="D3">
-        <v>0.63380281690140849</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="E3">
         <v>0.7127371273712737</v>
       </c>
       <c r="F3">
-        <v>0.29801324503311261</v>
+        <v>0.30263157894736842</v>
       </c>
       <c r="G3">
-        <v>0.40540540540540537</v>
+        <v>0.41255605381165922</v>
       </c>
       <c r="H3">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -553,25 +553,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.74545454545454548</v>
+        <v>0.73636363636363633</v>
       </c>
       <c r="C4">
-        <v>0.32730896284364852</v>
+        <v>0.3089067619898716</v>
       </c>
       <c r="D4">
-        <v>0.70422535211267601</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="E4">
-        <v>0.75338753387533874</v>
+        <v>0.74525745257452569</v>
       </c>
       <c r="F4">
-        <v>0.3546099290780142</v>
+        <v>0.34265734265734271</v>
       </c>
       <c r="G4">
-        <v>0.47169811320754718</v>
+        <v>0.45794392523364491</v>
       </c>
       <c r="H4">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -579,25 +579,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.73636363636363633</v>
+        <v>0.74318181818181817</v>
       </c>
       <c r="C5">
-        <v>0.3089067619898716</v>
+        <v>0.31291802553755999</v>
       </c>
       <c r="D5">
-        <v>0.6901408450704225</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="E5">
-        <v>0.74525745257452569</v>
+        <v>0.75609756097560976</v>
       </c>
       <c r="F5">
-        <v>0.34265734265734271</v>
+        <v>0.34782608695652167</v>
       </c>
       <c r="G5">
-        <v>0.45794392523364491</v>
+        <v>0.45933014354066992</v>
       </c>
       <c r="H5">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -605,25 +605,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.7295454545454545</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="C6">
-        <v>0.28234649122807021</v>
+        <v>0.34985074626865681</v>
       </c>
       <c r="D6">
         <v>0.647887323943662</v>
       </c>
       <c r="E6">
-        <v>0.74525745257452569</v>
+        <v>0.79945799457994582</v>
       </c>
       <c r="F6">
-        <v>0.32857142857142863</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G6">
-        <v>0.43601895734597163</v>
+        <v>0.48167539267015708</v>
       </c>
       <c r="H6">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -631,22 +631,22 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.65909090909090906</v>
+        <v>0.68409090909090908</v>
       </c>
       <c r="C7">
-        <v>0.1668560175717638</v>
+        <v>0.16173245614035101</v>
       </c>
       <c r="D7">
-        <v>0.57746478873239437</v>
+        <v>0.50704225352112675</v>
       </c>
       <c r="E7">
-        <v>0.67479674796747968</v>
+        <v>0.71815718157181574</v>
       </c>
       <c r="F7">
-        <v>0.25465838509316768</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="G7">
-        <v>0.35344827586206901</v>
+        <v>0.34123222748815157</v>
       </c>
       <c r="H7">
         <v>0.72</v>
@@ -657,25 +657,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.71363636363636362</v>
+        <v>0.72045454545454546</v>
       </c>
       <c r="C8">
-        <v>0.2432225831991045</v>
+        <v>0.2132348665464909</v>
       </c>
       <c r="D8">
-        <v>0.60563380281690138</v>
+        <v>0.52112676056338025</v>
       </c>
       <c r="E8">
-        <v>0.73441734417344173</v>
+        <v>0.75880758807588078</v>
       </c>
       <c r="F8">
-        <v>0.30496453900709219</v>
+        <v>0.29365079365079372</v>
       </c>
       <c r="G8">
-        <v>0.40566037735849059</v>
+        <v>0.37563451776649742</v>
       </c>
       <c r="H8">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -683,22 +683,22 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.63636363636363635</v>
+        <v>0.7704545454545455</v>
       </c>
       <c r="C9">
-        <v>0.19048823678219071</v>
+        <v>0.3185303318407654</v>
       </c>
       <c r="D9">
-        <v>0.6901408450704225</v>
+        <v>0.59154929577464788</v>
       </c>
       <c r="E9">
-        <v>0.62601626016260159</v>
+        <v>0.80487804878048785</v>
       </c>
       <c r="F9">
-        <v>0.26203208556149732</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="G9">
-        <v>0.37984496124031009</v>
+        <v>0.45405405405405408</v>
       </c>
       <c r="H9">
         <v>0.73</v>
@@ -709,25 +709,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.75909090909090904</v>
+        <v>0.78863636363636369</v>
       </c>
       <c r="C10">
-        <v>0.31902467513505589</v>
+        <v>0.34869803272426347</v>
       </c>
       <c r="D10">
-        <v>0.63380281690140849</v>
+        <v>0.59154929577464788</v>
       </c>
       <c r="E10">
-        <v>0.78319783197831983</v>
+        <v>0.82655826558265577</v>
       </c>
       <c r="F10">
-        <v>0.36</v>
+        <v>0.3962264150943397</v>
       </c>
       <c r="G10">
-        <v>0.45918367346938782</v>
+        <v>0.47457627118644069</v>
       </c>
       <c r="H10">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
